--- a/public/assets/bimport.xlsx
+++ b/public/assets/bimport.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>First name</t>
   </si>
@@ -31,9 +34,6 @@
     <t>Lead Subject</t>
   </si>
   <si>
-    <t>Lead Description</t>
-  </si>
-  <si>
     <t>Arun</t>
   </si>
   <si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Enquiry Online</t>
-  </si>
-  <si>
-    <t>Need to add this from our end</t>
   </si>
   <si>
     <t>ArunKevin</t>
@@ -67,38 +64,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -109,51 +108,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -343,25 +338,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.13"/>
-    <col customWidth="1" min="6" max="6" width="11.5"/>
-    <col customWidth="1" min="7" max="7" width="22.38"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,55 +381,49 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9551702545</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9.551702545E9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="5">
+        <v>7551201230</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.55120123E9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/bimport.xlsx
+++ b/public/assets/bimport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First name</t>
   </si>
@@ -34,31 +34,52 @@
     <t>Lead Subject</t>
   </si>
   <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>arunk@yopmail.com</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Enquiry Online</t>
-  </si>
-  <si>
-    <t>ArunKevin</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>kevin@yopmail.com</t>
-  </si>
-  <si>
-    <t>Ambattur, chennai</t>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Arumbakkam</t>
+  </si>
+  <si>
+    <t>Guindy</t>
+  </si>
+  <si>
+    <t>Of Sale</t>
+  </si>
+  <si>
+    <t>Lead Stage</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Not Interested</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>rajendran</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>rajendran@yopmail.com</t>
+  </si>
+  <si>
+    <t>Oliya</t>
+  </si>
+  <si>
+    <t>Ov</t>
+  </si>
+  <si>
+    <t>olioo@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -91,14 +112,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -120,21 +142,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,10 +372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -362,7 +386,7 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,42 +405,63 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8528528522</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7417417411</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
-        <v>9551702545</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
-        <v>7551201230</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
